--- a/en/downloads/data-excel/1.2.2.xlsx
+++ b/en/downloads/data-excel/1.2.2.xlsx
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,6 +911,9 @@
       <c r="G4" s="8">
         <v>2019</v>
       </c>
+      <c r="H4" s="8">
+        <v>2020</v>
+      </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -938,6 +941,9 @@
       <c r="G5" s="14">
         <v>42.3</v>
       </c>
+      <c r="H5" s="14">
+        <v>42.2</v>
+      </c>
       <c r="K5" s="37"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -957,6 +963,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="K6" s="37"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -984,6 +991,9 @@
       <c r="G7" s="34">
         <v>42.7</v>
       </c>
+      <c r="H7" s="34">
+        <v>42.5</v>
+      </c>
       <c r="K7" s="37"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -1011,6 +1021,9 @@
       <c r="G8" s="34">
         <v>41.9</v>
       </c>
+      <c r="H8" s="38">
+        <v>42</v>
+      </c>
       <c r="K8" s="37"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -1030,6 +1043,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="K9" s="37"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -1057,6 +1071,9 @@
       <c r="G10" s="38">
         <v>52</v>
       </c>
+      <c r="H10" s="38">
+        <v>50.9</v>
+      </c>
       <c r="K10" s="37"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -1084,6 +1101,9 @@
       <c r="G11" s="34">
         <v>35.9</v>
       </c>
+      <c r="H11" s="34">
+        <v>36.9</v>
+      </c>
       <c r="K11" s="37"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -1111,6 +1131,9 @@
       <c r="G12" s="34">
         <v>37</v>
       </c>
+      <c r="H12" s="34">
+        <v>34.799999999999997</v>
+      </c>
       <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1127,6 +1150,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
       <c r="K13" s="37"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -1154,6 +1178,9 @@
       <c r="G14" s="34">
         <v>31.1</v>
       </c>
+      <c r="H14" s="34">
+        <v>30.7</v>
+      </c>
       <c r="K14" s="37"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -1181,6 +1208,9 @@
       <c r="G15" s="34">
         <v>48.5</v>
       </c>
+      <c r="H15" s="34">
+        <v>48.8</v>
+      </c>
       <c r="K15" s="37"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -1200,6 +1230,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="J16" s="16"/>
       <c r="K16" s="37"/>
       <c r="L16" s="15"/>
@@ -1228,6 +1259,9 @@
       <c r="G17" s="34">
         <v>63.5</v>
       </c>
+      <c r="H17" s="34">
+        <v>61.1</v>
+      </c>
       <c r="K17" s="37"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -1255,6 +1289,9 @@
       <c r="G18" s="34">
         <v>50.4</v>
       </c>
+      <c r="H18" s="34">
+        <v>56.7</v>
+      </c>
       <c r="K18" s="37"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -1282,6 +1319,9 @@
       <c r="G19" s="34">
         <v>46.3</v>
       </c>
+      <c r="H19" s="34">
+        <v>41.6</v>
+      </c>
       <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1305,6 +1345,9 @@
       </c>
       <c r="G20" s="34">
         <v>47.8</v>
+      </c>
+      <c r="H20" s="38">
+        <v>49</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="36"/>
@@ -1333,6 +1376,9 @@
       <c r="G21" s="34">
         <v>45.8</v>
       </c>
+      <c r="H21" s="34">
+        <v>43.5</v>
+      </c>
       <c r="K21" s="37"/>
       <c r="L21" s="36"/>
       <c r="M21" s="15"/>
@@ -1360,6 +1406,9 @@
       <c r="G22" s="38">
         <v>40.200000000000003</v>
       </c>
+      <c r="H22" s="38">
+        <v>33.9</v>
+      </c>
       <c r="K22" s="37"/>
       <c r="L22" s="36"/>
       <c r="M22" s="15"/>
@@ -1387,6 +1436,9 @@
       <c r="G23" s="38">
         <v>31.7</v>
       </c>
+      <c r="H23" s="38">
+        <v>34.6</v>
+      </c>
       <c r="K23" s="37"/>
       <c r="L23" s="36"/>
       <c r="M23" s="15"/>
@@ -1414,6 +1466,9 @@
       <c r="G24" s="34">
         <v>22.2</v>
       </c>
+      <c r="H24" s="34">
+        <v>23.6</v>
+      </c>
       <c r="K24" s="37"/>
       <c r="L24" s="36"/>
       <c r="M24" s="15"/>
@@ -1440,6 +1495,9 @@
       </c>
       <c r="G25" s="35">
         <v>45.9</v>
+      </c>
+      <c r="H25" s="35">
+        <v>35.9</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="36"/>

--- a/en/downloads/data-excel/1.2.2.xlsx
+++ b/en/downloads/data-excel/1.2.2.xlsx
@@ -52,12 +52,6 @@
     <t>Urbanisation</t>
   </si>
   <si>
-    <t>шаар</t>
-  </si>
-  <si>
-    <t>айыл</t>
-  </si>
-  <si>
     <t>Эркектер</t>
   </si>
   <si>
@@ -239,6 +233,12 @@
   </si>
   <si>
     <t>Osh city</t>
+  </si>
+  <si>
+    <t>Шаар жерлери</t>
+  </si>
+  <si>
+    <t>Айыл аймагы</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
   <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,13 +921,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="14">
         <v>50.2</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -971,13 +971,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>50.3</v>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>50.1</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2">
         <v>59.7</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2">
         <v>43.7</v>
@@ -1111,13 +1111,13 @@
     </row>
     <row r="12" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="26">
         <v>49.2</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="9">
         <v>36.9</v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="9">
         <v>57.4</v>
@@ -1218,13 +1218,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="2"/>
@@ -1239,13 +1239,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="9">
         <v>64.900000000000006</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="9">
         <v>59.6</v>
@@ -1299,13 +1299,13 @@
     </row>
     <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="26">
         <v>45.2</v>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="9">
         <v>58.3</v>
@@ -1356,13 +1356,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="9">
         <v>57.5</v>
@@ -1386,13 +1386,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9">
         <v>49.8</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="9">
         <v>45.4</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="9">
         <v>26.8</v>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="10">
         <v>47.3</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="26" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>

--- a/en/downloads/data-excel/1.2.2.xlsx
+++ b/en/downloads/data-excel/1.2.2.xlsx
@@ -849,9 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -914,6 +912,9 @@
       <c r="H4" s="8">
         <v>2020</v>
       </c>
+      <c r="I4" s="8">
+        <v>2021</v>
+      </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -943,6 +944,9 @@
       </c>
       <c r="H5" s="14">
         <v>42.2</v>
+      </c>
+      <c r="I5" s="14">
+        <v>48.5</v>
       </c>
       <c r="K5" s="37"/>
       <c r="L5" s="15"/>
@@ -964,6 +968,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="K6" s="37"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -994,6 +999,9 @@
       <c r="H7" s="34">
         <v>42.5</v>
       </c>
+      <c r="I7" s="34">
+        <v>48.8</v>
+      </c>
       <c r="K7" s="37"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -1023,6 +1031,9 @@
       </c>
       <c r="H8" s="38">
         <v>42</v>
+      </c>
+      <c r="I8" s="38">
+        <v>48.2</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="15"/>
@@ -1044,6 +1055,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
       <c r="K9" s="37"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -1074,6 +1086,9 @@
       <c r="H10" s="38">
         <v>50.9</v>
       </c>
+      <c r="I10" s="38">
+        <v>58.2</v>
+      </c>
       <c r="K10" s="37"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -1104,6 +1119,9 @@
       <c r="H11" s="34">
         <v>36.9</v>
       </c>
+      <c r="I11" s="34">
+        <v>42.4</v>
+      </c>
       <c r="K11" s="37"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -1133,6 +1151,9 @@
       </c>
       <c r="H12" s="34">
         <v>34.799999999999997</v>
+      </c>
+      <c r="I12" s="34">
+        <v>40.700000000000003</v>
       </c>
       <c r="K12" s="37"/>
     </row>
@@ -1151,6 +1172,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
       <c r="K13" s="37"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -1181,6 +1203,9 @@
       <c r="H14" s="34">
         <v>30.7</v>
       </c>
+      <c r="I14" s="34">
+        <v>41.5</v>
+      </c>
       <c r="K14" s="37"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -1210,6 +1235,9 @@
       </c>
       <c r="H15" s="34">
         <v>48.8</v>
+      </c>
+      <c r="I15" s="34">
+        <v>52.6</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="15"/>
@@ -1231,6 +1259,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="16"/>
       <c r="K16" s="37"/>
       <c r="L16" s="15"/>
@@ -1262,6 +1291,9 @@
       <c r="H17" s="34">
         <v>61.1</v>
       </c>
+      <c r="I17" s="34">
+        <v>67.099999999999994</v>
+      </c>
       <c r="K17" s="37"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -1292,6 +1324,9 @@
       <c r="H18" s="34">
         <v>56.7</v>
       </c>
+      <c r="I18" s="34">
+        <v>62</v>
+      </c>
       <c r="K18" s="37"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -1322,6 +1357,9 @@
       <c r="H19" s="34">
         <v>41.6</v>
       </c>
+      <c r="I19" s="34">
+        <v>46.9</v>
+      </c>
       <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1348,6 +1386,9 @@
       </c>
       <c r="H20" s="38">
         <v>49</v>
+      </c>
+      <c r="I20" s="38">
+        <v>55.8</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="36"/>
@@ -1379,6 +1420,9 @@
       <c r="H21" s="34">
         <v>43.5</v>
       </c>
+      <c r="I21" s="34">
+        <v>42.7</v>
+      </c>
       <c r="K21" s="37"/>
       <c r="L21" s="36"/>
       <c r="M21" s="15"/>
@@ -1409,6 +1453,9 @@
       <c r="H22" s="38">
         <v>33.9</v>
       </c>
+      <c r="I22" s="38">
+        <v>48.3</v>
+      </c>
       <c r="K22" s="37"/>
       <c r="L22" s="36"/>
       <c r="M22" s="15"/>
@@ -1439,6 +1486,9 @@
       <c r="H23" s="38">
         <v>34.6</v>
       </c>
+      <c r="I23" s="38">
+        <v>39.700000000000003</v>
+      </c>
       <c r="K23" s="37"/>
       <c r="L23" s="36"/>
       <c r="M23" s="15"/>
@@ -1469,6 +1519,9 @@
       <c r="H24" s="34">
         <v>23.6</v>
       </c>
+      <c r="I24" s="34">
+        <v>38.1</v>
+      </c>
       <c r="K24" s="37"/>
       <c r="L24" s="36"/>
       <c r="M24" s="15"/>
@@ -1498,6 +1551,9 @@
       </c>
       <c r="H25" s="35">
         <v>35.9</v>
+      </c>
+      <c r="I25" s="35">
+        <v>44.7</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="36"/>

--- a/en/downloads/data-excel/1.2.2.xlsx
+++ b/en/downloads/data-excel/1.2.2.xlsx
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,7 +479,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -540,6 +539,18 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -849,7 +860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -915,19 +928,22 @@
       <c r="I4" s="8">
         <v>2021</v>
       </c>
+      <c r="J4" s="8">
+        <v>2022</v>
+      </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="14">
@@ -948,40 +964,44 @@
       <c r="I5" s="14">
         <v>48.5</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="J5" s="41">
+        <v>47.4</v>
+      </c>
+      <c r="K5" s="36"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="K6" s="37"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2">
@@ -990,31 +1010,34 @@
       <c r="E7" s="2">
         <v>50.3</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <v>45.8</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <v>42.7</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="33">
         <v>42.5</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <v>48.8</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="J7" s="42">
+        <v>47.9</v>
+      </c>
+      <c r="K7" s="36"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2">
@@ -1023,52 +1046,56 @@
       <c r="E8" s="2">
         <v>50.6</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <v>45.9</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <v>41.9</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>42</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <v>48.2</v>
       </c>
-      <c r="K8" s="37"/>
+      <c r="J8" s="43">
+        <v>46.9</v>
+      </c>
+      <c r="K8" s="36"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="K9" s="37"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="2">
@@ -1077,31 +1104,34 @@
       <c r="E10" s="2">
         <v>60</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>56</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>52</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>50.9</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <v>58.2</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="J10" s="43">
+        <v>56.8</v>
+      </c>
+      <c r="K10" s="36"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="2">
@@ -1110,82 +1140,89 @@
       <c r="E11" s="2">
         <v>44.1</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <v>39.299999999999997</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <v>35.9</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="33">
         <v>36.9</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <v>42.4</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="J11" s="42">
+        <v>41.4</v>
+      </c>
+      <c r="K11" s="36"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>49.2</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <v>46.4</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33">
         <v>38.6</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="33">
         <v>37</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="33">
         <v>34.799999999999997</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="33">
         <v>40.700000000000003</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="J12" s="43">
+        <v>39</v>
+      </c>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="K13" s="37"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="9">
@@ -1194,31 +1231,34 @@
       <c r="E14" s="2">
         <v>38.700000000000003</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <v>33.799999999999997</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <v>31.1</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="33">
         <v>30.7</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <v>41.5</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="J14" s="42">
+        <v>39.5</v>
+      </c>
+      <c r="K14" s="36"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="9">
@@ -1227,53 +1267,56 @@
       <c r="E15" s="2">
         <v>56.8</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="33">
         <v>52.4</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <v>48.5</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="33">
         <v>48.8</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <v>52.6</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="J15" s="42">
+        <v>51.9</v>
+      </c>
+      <c r="K15" s="36"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="37"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="9">
@@ -1282,31 +1325,34 @@
       <c r="E17" s="2">
         <v>66</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="33">
         <v>64.8</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <v>63.5</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <v>61.1</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <v>67.099999999999994</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="J17" s="42">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="K17" s="36"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="9">
@@ -1315,61 +1361,67 @@
       <c r="E18" s="2">
         <v>61.5</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="33">
         <v>53.8</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="33">
         <v>50.4</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="33">
         <v>56.7</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="33">
         <v>62</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="J18" s="43">
+        <v>61</v>
+      </c>
+      <c r="K18" s="36"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>45.2</v>
       </c>
       <c r="E19" s="2">
         <v>47</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="33">
         <v>42.7</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="33">
         <v>46.3</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="33">
         <v>41.6</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <v>46.9</v>
       </c>
-      <c r="K19" s="37"/>
+      <c r="J19" s="42">
+        <v>42.5</v>
+      </c>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="9">
@@ -1378,31 +1430,34 @@
       <c r="E20" s="2">
         <v>50</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="33">
         <v>48.5</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="33">
         <v>47.8</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="37">
         <v>49</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="37">
         <v>55.8</v>
       </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="36"/>
+      <c r="J20" s="43">
+        <v>54</v>
+      </c>
+      <c r="K20" s="36"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="9">
@@ -1411,31 +1466,34 @@
       <c r="E21" s="2">
         <v>52.1</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="33">
         <v>58.5</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <v>45.8</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <v>43.5</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <v>42.7</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="36"/>
+      <c r="J21" s="42">
+        <v>42.5</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="9">
@@ -1444,135 +1502,147 @@
       <c r="E22" s="2">
         <v>39.799999999999997</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="37">
         <v>43</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="37">
         <v>40.200000000000003</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="37">
         <v>33.9</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="37">
         <v>48.3</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="36"/>
+      <c r="J22" s="43">
+        <v>45.8</v>
+      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="9">
         <v>45.4</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <v>48.7</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="37">
         <v>28</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="37">
         <v>31.7</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="37">
         <v>34.6</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="37">
         <v>39.700000000000003</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="36"/>
+      <c r="J23" s="43">
+        <v>38.1</v>
+      </c>
+      <c r="K23" s="36"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="9">
         <v>26.8</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="33">
         <v>29.9</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="33">
         <v>25.4</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="33">
         <v>22.2</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="33">
         <v>23.6</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="33">
         <v>38.1</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="36"/>
+      <c r="J24" s="42">
+        <v>38.9</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="10">
         <v>47.3</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="34">
         <v>58.6</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="34">
         <v>51.3</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="34">
         <v>45.9</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="34">
         <v>35.9</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="34">
         <v>44.7</v>
       </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="36"/>
+      <c r="J25" s="44">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="K25" s="36"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="27"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
@@ -1609,16 +1679,16 @@
       <c r="K32" s="15"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="33"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="26"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="26"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="26"/>
+      <c r="K36" s="25"/>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="15"/>

--- a/en/downloads/data-excel/1.2.2.xlsx
+++ b/en/downloads/data-excel/1.2.2.xlsx
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,9 +527,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -860,9 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -931,7 +926,9 @@
       <c r="J4" s="8">
         <v>2022</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="8">
+        <v>2023</v>
+      </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -964,22 +961,24 @@
       <c r="I5" s="14">
         <v>48.5</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="40">
         <v>47.4</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="40">
+        <v>43.6</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="2"/>
@@ -988,8 +987,8 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="36"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -1022,10 +1021,12 @@
       <c r="I7" s="33">
         <v>48.8</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="41">
         <v>47.9</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="41">
+        <v>43.5</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -1052,28 +1053,30 @@
       <c r="G8" s="33">
         <v>41.9</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <v>42</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>48.2</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="42">
         <v>46.9</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="42">
+        <v>43.6</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="2"/>
@@ -1082,8 +1085,8 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="36"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -1104,22 +1107,24 @@
       <c r="E10" s="2">
         <v>60</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <v>56</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <v>52</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>50.9</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <v>58.2</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <v>56.8</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="42">
+        <v>52.6</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -1152,10 +1157,12 @@
       <c r="I11" s="33">
         <v>42.4</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <v>41.4</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="41">
+        <v>38.200000000000003</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -1188,19 +1195,21 @@
       <c r="I12" s="33">
         <v>40.700000000000003</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="42">
         <v>39</v>
       </c>
-      <c r="K12" s="36"/>
+      <c r="K12" s="42">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="9"/>
@@ -1209,8 +1218,8 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="36"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
@@ -1243,10 +1252,12 @@
       <c r="I14" s="33">
         <v>41.5</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="41">
         <v>39.5</v>
       </c>
-      <c r="K14" s="36"/>
+      <c r="K14" s="41">
+        <v>36.799999999999997</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
@@ -1279,10 +1290,12 @@
       <c r="I15" s="33">
         <v>52.6</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="41">
         <v>51.9</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="K15" s="41">
+        <v>47.4</v>
+      </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
@@ -1291,10 +1304,10 @@
       <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="9"/>
@@ -1303,8 +1316,8 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="36"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
@@ -1337,10 +1350,12 @@
       <c r="I17" s="33">
         <v>67.099999999999994</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="41">
         <v>69.900000000000006</v>
       </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="41">
+        <v>69.3</v>
+      </c>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
@@ -1373,10 +1388,12 @@
       <c r="I18" s="33">
         <v>62</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <v>61</v>
       </c>
-      <c r="K18" s="36"/>
+      <c r="K18" s="42">
+        <v>54.9</v>
+      </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -1409,10 +1426,12 @@
       <c r="I19" s="33">
         <v>46.9</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="41">
         <v>42.5</v>
       </c>
-      <c r="K19" s="36"/>
+      <c r="K19" s="41">
+        <v>45.4</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -1436,16 +1455,18 @@
       <c r="G20" s="33">
         <v>47.8</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <v>49</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <v>55.8</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="42">
         <v>54</v>
       </c>
-      <c r="K20" s="36"/>
+      <c r="K20" s="42">
+        <v>49.3</v>
+      </c>
       <c r="L20" s="35"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -1478,10 +1499,12 @@
       <c r="I21" s="33">
         <v>42.7</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="41">
         <v>42.5</v>
       </c>
-      <c r="K21" s="36"/>
+      <c r="K21" s="41">
+        <v>37.1</v>
+      </c>
       <c r="L21" s="35"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -1502,22 +1525,24 @@
       <c r="E22" s="2">
         <v>39.799999999999997</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <v>43</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>40.200000000000003</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>33.9</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>48.3</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="42">
         <v>45.8</v>
       </c>
-      <c r="K22" s="36"/>
+      <c r="K22" s="42">
+        <v>41.1</v>
+      </c>
       <c r="L22" s="35"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
@@ -1538,22 +1563,24 @@
       <c r="E23" s="33">
         <v>48.7</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <v>28</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>31.7</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <v>34.6</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="36">
         <v>39.700000000000003</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="42">
         <v>38.1</v>
       </c>
-      <c r="K23" s="36"/>
+      <c r="K23" s="42">
+        <v>35.700000000000003</v>
+      </c>
       <c r="L23" s="35"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
@@ -1586,10 +1613,12 @@
       <c r="I24" s="33">
         <v>38.1</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>38.9</v>
       </c>
-      <c r="K24" s="36"/>
+      <c r="K24" s="41">
+        <v>36.799999999999997</v>
+      </c>
       <c r="L24" s="35"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
@@ -1622,10 +1651,12 @@
       <c r="I25" s="34">
         <v>44.7</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <v>38.700000000000003</v>
       </c>
-      <c r="K25" s="36"/>
+      <c r="K25" s="43">
+        <v>26</v>
+      </c>
       <c r="L25" s="35"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
